--- a/AAII_Financials/Quarterly/CNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>CNR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43925</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43401</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43310</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43219</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1113800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1244400</v>
+      </c>
+      <c r="F8" s="3">
         <v>1285000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2360300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1064800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>559900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>573600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>548500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>878400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>421300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>882700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>956400</v>
+      </c>
+      <c r="F9" s="3">
         <v>975200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1869700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>878900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>475800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>440400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>415100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>682400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>329400</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>231100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>288000</v>
+      </c>
+      <c r="F10" s="3">
         <v>309800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>490600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>185900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>84100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>133200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>133400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>196000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,66 +904,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>521900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F14" s="3">
         <v>15500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>36700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>17500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>34900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>12400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-2600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>32000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44900</v>
+      </c>
+      <c r="F15" s="3">
         <v>44700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>88000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>41500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>20100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>2400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4800</v>
       </c>
       <c r="K15" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1614600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1178800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1189500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2306700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1092200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>626600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>534100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>494000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>868400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>408500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>65600</v>
+      </c>
+      <c r="F18" s="3">
         <v>95500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>53600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-27400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-66700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>39500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>54500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>10000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,153 +1075,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-435500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>139600</v>
+      </c>
+      <c r="F21" s="3">
         <v>159800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>183000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>34300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-37400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>50700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>64800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>31700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F22" s="3">
         <v>56500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>116600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>58300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>28600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>4900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>4600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>12300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-560100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F23" s="3">
         <v>39300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-61000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-83900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-96900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>34400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>50100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F24" s="3">
         <v>14100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-18600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-23900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-20700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>8000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>13500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-2800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-542100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>25200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-42500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-60000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-76200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>26500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>36600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-542100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>24800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-42100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-59700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-76200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>26300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>36400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1288,20 +1409,26 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>1100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-1800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-542100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>24800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-42100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-59700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-76200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>27400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>35800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-542100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>24800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-42100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-59700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-76200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>27400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>35800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43925</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43401</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43310</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43219</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,182 +1705,220 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>475700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>98400</v>
+      </c>
+      <c r="F41" s="3">
         <v>105200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>87500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>99600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>143800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>54300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>43300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>35300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F42" s="3">
         <v>3600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>3700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>3700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>3400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>5300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>5800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>6300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>512600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>540200</v>
+      </c>
+      <c r="F43" s="3">
         <v>622300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>609800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>513000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>439500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>234300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>212300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>186800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>170300</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>460400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>439200</v>
+      </c>
+      <c r="F44" s="3">
         <v>467900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>502100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>517000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>536700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>254500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>260900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>221400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>200500</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>86600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>84200</v>
+      </c>
+      <c r="F45" s="3">
         <v>83800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>79100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>90200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>80300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>42300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>43300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>46800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1538100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1165700</v>
+      </c>
+      <c r="F46" s="3">
         <v>1282800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1282200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1223500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1203800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>590700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>565600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>496700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,66 +1946,84 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>953100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>969000</v>
+      </c>
+      <c r="F48" s="3">
         <v>952100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>917400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>931100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>614000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>236200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>230900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>221400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>220500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2887800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3410300</v>
+      </c>
+      <c r="F49" s="3">
         <v>3462900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3442000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3423200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3310100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>275800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>278200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>280600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>283000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F52" s="3">
         <v>10700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>12100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>12000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>13300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>7600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5392400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5564300</v>
+      </c>
+      <c r="F54" s="3">
         <v>5708500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5653700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5589900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5141200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1110400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1081700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1006600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>946000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,37 +2225,45 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>219300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>205600</v>
+      </c>
+      <c r="F57" s="3">
         <v>235200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>241800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>216300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>220900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>170700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>179700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>157800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2013,135 +2280,165 @@
         <v>25600</v>
       </c>
       <c r="H58" s="3">
+        <v>25600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>25600</v>
+      </c>
+      <c r="J58" s="3">
         <v>4600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>384600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>417300</v>
+      </c>
+      <c r="F59" s="3">
         <v>483700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>488700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>470100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>403700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>160400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>174100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>155800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>144700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>629500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>648500</v>
+      </c>
+      <c r="F60" s="3">
         <v>744500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>756100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>712000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>650200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>335700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>358900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>315300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3612600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3156900</v>
+      </c>
+      <c r="F61" s="3">
         <v>3267600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3315600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3301200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3085200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>403100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>403800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>409000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>387600</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>802400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>823600</v>
+      </c>
+      <c r="F62" s="3">
         <v>768400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>673900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>670300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>445900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>41300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>19900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>20100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5044500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4629000</v>
+      </c>
+      <c r="F66" s="3">
         <v>4780600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4745500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4683600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4181200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>780100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>782600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>744300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>679700</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-824000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-281200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-283200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-308300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-325900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-265800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-186300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-213800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-249800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-244100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>347900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>935300</v>
+      </c>
+      <c r="F76" s="3">
         <v>927900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>908200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>906300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>960000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>330300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>299100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>262300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43925</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43401</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43310</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43219</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-542100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>24800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-42100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-59700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-76200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>27400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>35800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>72300</v>
+      </c>
+      <c r="F83" s="3">
         <v>64000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>127500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>59900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>30900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>11400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>10200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>20800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>161800</v>
+      </c>
+      <c r="F89" s="3">
         <v>97700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-29900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-48700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>11100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>25600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>16900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>40000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-29100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-57200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-27200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-13600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-13000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-18000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-16900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-29100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-235500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-209600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>73500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-13000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-6600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-18600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>453300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-139400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-50100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>207000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>213400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>9200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-51700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>2300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>381300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F102" s="3">
         <v>17600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-56100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-44000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>93100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>11000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>8000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-30300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-53200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>CNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,180 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44016</v>
+      </c>
+      <c r="E7" s="2">
         <v>43925</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43401</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43310</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43219</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1084900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1113800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1244400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1285000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2360300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1064800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>559900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>573600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>548500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>878400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>421300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>830200</v>
+      </c>
+      <c r="E9" s="3">
         <v>882700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>956400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>975200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1869700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>878900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>475800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>440400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>415100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>682400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>329400</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>254700</v>
+      </c>
+      <c r="E10" s="3">
         <v>231100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>288000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>309800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>490600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>185900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>84100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>133200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>133400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>196000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,78 +926,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E14" s="3">
         <v>521900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>16100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>15500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>36700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>17500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>34900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>32000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>44900</v>
+        <v>45200</v>
       </c>
       <c r="E15" s="3">
         <v>44900</v>
       </c>
       <c r="F15" s="3">
+        <v>44900</v>
+      </c>
+      <c r="G15" s="3">
         <v>44700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>88000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>41500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>20100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2400</v>
       </c>
       <c r="K15" s="3">
         <v>2400</v>
       </c>
       <c r="L15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M15" s="3">
         <v>4800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1026000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1614600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1178800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1189500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2306700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1092200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>626600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>534100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>494000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>868400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>408500</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>65600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>95500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>53600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-27400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-66700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>39500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>54500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,183 +1109,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1000</v>
       </c>
       <c r="M20" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>132700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-435500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>139600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>159800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>183000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>34300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-37400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>50700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>64800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>31700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E22" s="3">
         <v>54800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>56100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>56500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>116600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>58300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-560100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>39300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-61000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-83900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-96900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>34400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>50100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-18000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-18600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-23900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-20700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-542100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>25200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-42500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-60000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-76200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>36600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-542100</v>
+        <v>26500</v>
       </c>
       <c r="E27" s="3">
+        <v>-541600</v>
+      </c>
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-42100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-59700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-76200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>26300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>36400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1415,20 +1475,23 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>1100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-600</v>
-      </c>
-      <c r="L29" s="3">
-        <v>-1800</v>
       </c>
       <c r="M29" s="3">
         <v>-1800</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>4400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1000</v>
       </c>
       <c r="M32" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-542100</v>
+        <v>26500</v>
       </c>
       <c r="E33" s="3">
+        <v>-541600</v>
+      </c>
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>24800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-42100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-59700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-76200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>27400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-542100</v>
+        <v>26500</v>
       </c>
       <c r="E35" s="3">
+        <v>-541600</v>
+      </c>
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>24800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-42100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-59700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-76200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>27400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44016</v>
+      </c>
+      <c r="E38" s="2">
         <v>43925</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43401</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43310</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43219</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,218 +1792,237 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>483500</v>
+      </c>
+      <c r="E41" s="3">
         <v>475700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>98400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>105200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>87500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>99600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>143800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>54300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>35300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E42" s="3">
         <v>2900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3600</v>
-      </c>
-      <c r="G42" s="3">
-        <v>3700</v>
       </c>
       <c r="H42" s="3">
         <v>3700</v>
       </c>
       <c r="I42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J42" s="3">
         <v>3400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>5300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>559400</v>
+      </c>
+      <c r="E43" s="3">
         <v>512600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>540200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>622300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>609800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>513000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>439500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>234300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>212300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>186800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>170300</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>403000</v>
+      </c>
+      <c r="E44" s="3">
         <v>460400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>439200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>467900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>502100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>517000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>536700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>254500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>260900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>221400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>200500</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E45" s="3">
         <v>86600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>84200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>83800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>79100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>90200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>80300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>43300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>46800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1526200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1538100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1165700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1282800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1282200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1223500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1203800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>590700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>565600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>496700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,78 +2056,87 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>945100</v>
+      </c>
+      <c r="E48" s="3">
         <v>953100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>969000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>952100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>917400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>931100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>614000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>236200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>230900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>221400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>220500</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2853400</v>
+      </c>
+      <c r="E49" s="3">
         <v>2887800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3410300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3462900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3442000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3423200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3310100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>275800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>278200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>280600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>283000</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2208,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E52" s="3">
         <v>13400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>7900</v>
       </c>
       <c r="M52" s="3">
         <v>7900</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5337800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5392400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5564300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5708500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5653700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5589900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5141200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1110400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1081700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1006600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>946000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,43 +2356,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>198900</v>
+      </c>
+      <c r="E57" s="3">
         <v>219300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>205600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>235200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>241800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>216300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>220900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>170700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>179700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>157800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2286,159 +2419,174 @@
         <v>25600</v>
       </c>
       <c r="J58" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K58" s="3">
         <v>4600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>368900</v>
+      </c>
+      <c r="E59" s="3">
         <v>384600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>417300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>483700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>488700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>470100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>403700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>160400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>174100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>155800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>144700</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>593500</v>
+      </c>
+      <c r="E60" s="3">
         <v>629500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>648500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>744500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>756100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>712000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>650200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>335700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>358900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>315300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3578300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3612600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3156900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3267600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3315600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3301200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3085200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>403100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>403800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>409000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>387600</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>787800</v>
+      </c>
+      <c r="E62" s="3">
         <v>802400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>823600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>768400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>673900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>670300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>445900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>41300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>19900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4959600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5044500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4629000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4780600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4745500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4683600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4181200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>780100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>782600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>744300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>679700</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-797100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-824000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-281200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-283200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-308300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-325900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-265800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-186300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-213800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-249800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-244100</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>378200</v>
+      </c>
+      <c r="E76" s="3">
         <v>347900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>935300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>927900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>908200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>906300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>960000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>330300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>299100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>262300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44016</v>
+      </c>
+      <c r="E80" s="2">
         <v>43925</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43401</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43310</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43219</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-542100</v>
+        <v>26500</v>
       </c>
       <c r="E81" s="3">
+        <v>-541600</v>
+      </c>
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>24800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-42100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-59700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-76200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>27400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E83" s="3">
         <v>69800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>72300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>64000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>127500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>59900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>161800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>97700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-29900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-48700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>40000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-34700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-57200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-67400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-30100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-29100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-235500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-209600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>73500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3829,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E100" s="3">
         <v>453300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-139400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-50100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>207000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>213400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-51700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E102" s="3">
         <v>381300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-56100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-44000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>93100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-30300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-53200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>CNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,192 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43925</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43401</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43310</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43219</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1084900</v>
+        <v>1227300</v>
       </c>
       <c r="E8" s="3">
+        <v>2198700</v>
+      </c>
+      <c r="F8" s="3">
         <v>1113800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1244400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1285000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2360300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1064800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>559900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>573600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>548500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>878400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>421300</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>830200</v>
+        <v>929800</v>
       </c>
       <c r="E9" s="3">
+        <v>1712900</v>
+      </c>
+      <c r="F9" s="3">
         <v>882700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>956400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>975200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1869700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>878900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>475800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>440400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>415100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>682400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>329400</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>254700</v>
+        <v>297500</v>
       </c>
       <c r="E10" s="3">
+        <v>485800</v>
+      </c>
+      <c r="F10" s="3">
         <v>231100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>288000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>309800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>490600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>185900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>84100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>133200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>133400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>196000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,84 +945,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>16200</v>
+        <v>10800</v>
       </c>
       <c r="E14" s="3">
+        <v>538300</v>
+      </c>
+      <c r="F14" s="3">
         <v>521900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>16100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>15500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>36700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>17500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>34900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>32000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>45200</v>
+        <v>45400</v>
       </c>
       <c r="E15" s="3">
-        <v>44900</v>
+        <v>90100</v>
       </c>
       <c r="F15" s="3">
         <v>44900</v>
       </c>
       <c r="G15" s="3">
+        <v>44900</v>
+      </c>
+      <c r="H15" s="3">
         <v>44700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>88000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>41500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>20100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2400</v>
       </c>
       <c r="L15" s="3">
         <v>2400</v>
       </c>
       <c r="M15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N15" s="3">
         <v>4800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1043,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1026000</v>
+        <v>1123300</v>
       </c>
       <c r="E17" s="3">
+        <v>2640600</v>
+      </c>
+      <c r="F17" s="3">
         <v>1614600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1178800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1189500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2306700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1092200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>626600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>534100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>494000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>868400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>408500</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>58900</v>
+        <v>104000</v>
       </c>
       <c r="E18" s="3">
+        <v>-441900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>65600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>95500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>53600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-66700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>39500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>54500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,198 +1142,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3100</v>
+        <v>1100</v>
       </c>
       <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1000</v>
       </c>
       <c r="N20" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>132700</v>
+        <v>177000</v>
       </c>
       <c r="E21" s="3">
+        <v>-302800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-435500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>139600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>159800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>183000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>34300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-37400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>50700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>64800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>31700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>52400</v>
+        <v>51500</v>
       </c>
       <c r="E22" s="3">
+        <v>107200</v>
+      </c>
+      <c r="F22" s="3">
         <v>54800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>56100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>56500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>116600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>58300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>28600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9600</v>
+        <v>53600</v>
       </c>
       <c r="E23" s="3">
+        <v>-550500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-560100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>39300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-61000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-83900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-96900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>34400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>50100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-17300</v>
+        <v>23100</v>
       </c>
       <c r="E24" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-18000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-18600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-23900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-20700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>26900</v>
+        <v>30500</v>
       </c>
       <c r="E26" s="3">
+        <v>-515200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-542100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>25200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-42500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-60000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-76200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>36600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>26500</v>
+        <v>30000</v>
       </c>
       <c r="E27" s="3">
+        <v>-514700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-541600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-42100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-59700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-76200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>36400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,20 +1538,23 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>1100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-600</v>
-      </c>
-      <c r="M29" s="3">
-        <v>-1800</v>
       </c>
       <c r="N29" s="3">
         <v>-1800</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1632,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3100</v>
+        <v>-1100</v>
       </c>
       <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>4400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1000</v>
       </c>
       <c r="N32" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>26500</v>
+        <v>30000</v>
       </c>
       <c r="E33" s="3">
+        <v>-514700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-541600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-42100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-59700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-76200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>26500</v>
+        <v>30000</v>
       </c>
       <c r="E35" s="3">
+        <v>-514700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-541600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-42100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-59700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-76200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43925</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43401</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43310</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43219</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,236 +1878,255 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>627600</v>
+      </c>
+      <c r="E41" s="3">
         <v>483500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>475700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>98400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>105200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>87500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>99600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>143800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E42" s="3">
         <v>3500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3600</v>
-      </c>
-      <c r="H42" s="3">
-        <v>3700</v>
       </c>
       <c r="I42" s="3">
         <v>3700</v>
       </c>
       <c r="J42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K42" s="3">
         <v>3400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>613000</v>
+      </c>
+      <c r="E43" s="3">
         <v>559400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>512600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>540200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>622300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>609800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>513000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>439500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>234300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>212300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>186800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>170300</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>408900</v>
+      </c>
+      <c r="E44" s="3">
         <v>403000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>460400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>439200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>467900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>502100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>517000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>536700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>254500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>260900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>221400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>200500</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E45" s="3">
         <v>76800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>86600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>84200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>83800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>79100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>90200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>80300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>43300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>46800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1735800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1526200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1538100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1165700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1282800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1282200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1223500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1203800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>590700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>565600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>496700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,84 +2163,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>912900</v>
+      </c>
+      <c r="E48" s="3">
         <v>945100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>953100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>969000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>952100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>917400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>931100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>614000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>236200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>230900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>221400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>220500</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2813100</v>
+      </c>
+      <c r="E49" s="3">
         <v>2853400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2887800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3410300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3462900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3442000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3423200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3310100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>275800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>278200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>280600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>283000</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2327,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E52" s="3">
         <v>13200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>7900</v>
       </c>
       <c r="N52" s="3">
         <v>7900</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2409,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5475000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5337800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5392400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5564300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5708500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5653700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5589900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5141200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1110400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1081700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1006600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>946000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,46 +2486,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>229400</v>
+      </c>
+      <c r="E57" s="3">
         <v>198900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>219300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>205600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>235200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>241800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>216300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>220900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>170700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>179700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>157800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2422,171 +2555,186 @@
         <v>25600</v>
       </c>
       <c r="K58" s="3">
+        <v>25600</v>
+      </c>
+      <c r="L58" s="3">
         <v>4600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>441300</v>
+      </c>
+      <c r="E59" s="3">
         <v>368900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>384600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>417300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>483700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>488700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>470100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>403700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>160400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>174100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>155800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>144700</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>696300</v>
+      </c>
+      <c r="E60" s="3">
         <v>593500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>629500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>648500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>744500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>756100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>712000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>650200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>335700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>358900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>315300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3567300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3578300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3612600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3156900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3267600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3315600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3301200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3085200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>403100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>403800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>409000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>387600</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>791100</v>
+      </c>
+      <c r="E62" s="3">
         <v>787800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>802400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>823600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>768400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>673900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>670300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>445900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>41300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>19900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2853,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5054700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4959600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5044500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4629000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4780600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4745500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4683600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4181200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>780100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>782600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>744300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>679700</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3075,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-766600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-797100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-824000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-281200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-283200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-308300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-325900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-265800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-186300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-213800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-249800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-244100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3239,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>420300</v>
+      </c>
+      <c r="E76" s="3">
         <v>378200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>347900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>935300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>927900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>908200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>906300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>960000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>330300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>299100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>262300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43925</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43401</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43310</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43219</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>26500</v>
+        <v>30000</v>
       </c>
       <c r="E81" s="3">
+        <v>-514700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-541600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-42100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-59700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-76200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3427,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>70700</v>
+        <v>71900</v>
       </c>
       <c r="E83" s="3">
+        <v>140500</v>
+      </c>
+      <c r="F83" s="3">
         <v>69800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>72300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>64000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>127500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>59900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3671,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>69200</v>
+        <v>169900</v>
       </c>
       <c r="E89" s="3">
+        <v>67000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>161800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>97700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-29900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-48700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>40000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3731,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20000</v>
+        <v>-14900</v>
       </c>
       <c r="E91" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-27600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-29100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-57200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3852,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21900</v>
+        <v>-13500</v>
       </c>
       <c r="E94" s="3">
+        <v>-89300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-67400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-30100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-235500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-209600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>73500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4074,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-43000</v>
+        <v>-13300</v>
       </c>
       <c r="E100" s="3">
+        <v>410300</v>
+      </c>
+      <c r="F100" s="3">
         <v>453300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-139400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-50100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>207000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>213400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>9200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-51700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="E101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6100</v>
+        <v>144100</v>
       </c>
       <c r="E102" s="3">
+        <v>387400</v>
+      </c>
+      <c r="F102" s="3">
         <v>381300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-56100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-44000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>93100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-30300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-53200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>CNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,205 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43925</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43401</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43310</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43219</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1191400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1227300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2198700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1113800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1244400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1285000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2360300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1064800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>559900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>573600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>548500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>878400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>421300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>924200</v>
+      </c>
+      <c r="E9" s="3">
         <v>929800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1712900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>882700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>956400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>975200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1869700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>878900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>475800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>440400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>415100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>682400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>329400</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>267200</v>
+      </c>
+      <c r="E10" s="3">
         <v>297500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>485800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>231100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>288000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>309800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>490600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>185900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>84100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>133200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>133400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>196000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,49 +965,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E14" s="3">
         <v>10800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>538300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>521900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>16100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>15500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>36700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>17500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>34900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-2600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>32000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -998,40 +1021,43 @@
         <v>45400</v>
       </c>
       <c r="E15" s="3">
+        <v>45400</v>
+      </c>
+      <c r="F15" s="3">
         <v>90100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>44900</v>
       </c>
       <c r="G15" s="3">
         <v>44900</v>
       </c>
       <c r="H15" s="3">
+        <v>44900</v>
+      </c>
+      <c r="I15" s="3">
         <v>44700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>88000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>41500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>20100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2400</v>
       </c>
       <c r="M15" s="3">
         <v>2400</v>
       </c>
       <c r="N15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O15" s="3">
         <v>4800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1120000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1123300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2640600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1614600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1178800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1189500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2306700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1092200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>626600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>534100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>494000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>868400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>408500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E18" s="3">
         <v>104000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-441900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>65600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>95500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>53600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-27400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-66700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>54500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,213 +1176,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1000</v>
       </c>
       <c r="O20" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>146800</v>
+      </c>
+      <c r="E21" s="3">
         <v>177000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-302800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-435500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>139600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>159800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>183000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>34300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-37400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>50700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>64800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>31700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E22" s="3">
         <v>51500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>107200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>54800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>56100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>56500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>116600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>58300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E23" s="3">
         <v>53600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-550500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-560100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>39300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-61000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-83900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-96900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>34400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>50100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E24" s="3">
         <v>23100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-35300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-18000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-18600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-23900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-20700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>30500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-515200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-542100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-42500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-60000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-76200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>36600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>30000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-514700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-541600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-42100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-59700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-76200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>36400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1541,20 +1602,23 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>1100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-600</v>
-      </c>
-      <c r="N29" s="3">
-        <v>-1800</v>
       </c>
       <c r="O29" s="3">
         <v>-1800</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,90 +1702,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-1000</v>
       </c>
       <c r="O32" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>30000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-514700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-541600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-42100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-59700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-76200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>27400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>35800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>30000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-514700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-541600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-42100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-59700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-76200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>27400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>35800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43925</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43401</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43310</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43219</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,254 +1965,273 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>674300</v>
+      </c>
+      <c r="E41" s="3">
         <v>627600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>483500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>475700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>98400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>105200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>87500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>99600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>143800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>54300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E42" s="3">
         <v>1900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3600</v>
-      </c>
-      <c r="I42" s="3">
-        <v>3700</v>
       </c>
       <c r="J42" s="3">
         <v>3700</v>
       </c>
       <c r="K42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L42" s="3">
         <v>3400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>594000</v>
+      </c>
+      <c r="E43" s="3">
         <v>613000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>559400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>512600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>540200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>622300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>609800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>513000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>439500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>234300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>212300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>186800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>170300</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>431900</v>
+      </c>
+      <c r="E44" s="3">
         <v>408900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>403000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>460400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>439200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>467900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>502100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>517000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>536700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>254500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>260900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>221400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>200500</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E45" s="3">
         <v>84400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>76800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>86600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>84200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>83800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>79100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>90200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>80300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>42300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>43300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>46800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1791200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1735800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1526200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1538100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1165700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1282800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1282200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1223500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1203800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>590700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>565600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>496700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,90 +2271,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>895900</v>
+      </c>
+      <c r="E48" s="3">
         <v>912900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>945100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>953100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>969000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>952100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>917400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>931100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>614000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>236200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>230900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>221400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>220500</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2779300</v>
+      </c>
+      <c r="E49" s="3">
         <v>2813100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2853400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2887800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3410300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3462900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3442000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3423200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3310100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>275800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>278200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>280600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>283000</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,49 +2447,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E52" s="3">
         <v>13100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>7900</v>
       </c>
       <c r="O52" s="3">
         <v>7900</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,49 +2535,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5478500</v>
+      </c>
+      <c r="E54" s="3">
         <v>5475000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5337800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5392400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5564300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5708500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5653700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5589900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5141200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1110400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1081700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1006600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>946000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,49 +2617,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>211400</v>
+      </c>
+      <c r="E57" s="3">
         <v>229400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>198900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>219300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>205600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>235200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>241800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>216300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>220900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>170700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>179700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>157800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2558,183 +2692,198 @@
         <v>25600</v>
       </c>
       <c r="L58" s="3">
+        <v>25600</v>
+      </c>
+      <c r="M58" s="3">
         <v>4600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>430100</v>
+      </c>
+      <c r="E59" s="3">
         <v>441300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>368900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>384600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>417300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>483700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>488700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>470100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>403700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>160400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>174100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>155800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>144700</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>667200</v>
+      </c>
+      <c r="E60" s="3">
         <v>696300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>593500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>629500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>648500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>744500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>756100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>712000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>650200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>335700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>358900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>315300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3563400</v>
+      </c>
+      <c r="E61" s="3">
         <v>3567300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3578300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3612600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3156900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3267600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3315600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3301200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3085200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>403100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>403800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>409000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>387600</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>806100</v>
+      </c>
+      <c r="E62" s="3">
         <v>791100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>787800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>802400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>823600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>768400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>673900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>670300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>445900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>41300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>19900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>20100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,49 +3011,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5036700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5054700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4959600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5044500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4629000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4780600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4745500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4683600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4181200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>780100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>782600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>744300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>679700</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,49 +3249,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-764700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-766600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-797100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-824000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-281200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-283200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-308300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-325900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-265800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-186300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-213800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-249800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-244100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,49 +3425,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>441800</v>
+      </c>
+      <c r="E76" s="3">
         <v>420300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>378200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>347900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>935300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>927900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>908200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>906300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>960000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>330300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>299100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>262300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43925</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43401</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43310</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43219</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>30000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-514700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-541600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-42100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-59700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-76200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>27400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>35800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,49 +3626,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E83" s="3">
         <v>71900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>140500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>69800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>72300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>64000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>127500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>59900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E89" s="3">
         <v>169900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>67000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>161800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>97700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-29900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-48700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>25600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>40000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,49 +3952,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-47600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-57200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4082,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-89300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-67400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-235500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-209600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>73500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,127 +4320,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-13300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>410300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>453300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-139400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-50100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>207000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>213400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-51700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E102" s="3">
         <v>144100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>387400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>381300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-56100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-44000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>93100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-30300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-53200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>CNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,218 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44107</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44016</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43925</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43401</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43310</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43219</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1267000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1191400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1227300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2198700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1113800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1244400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1285000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2360300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1064800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>559900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>573600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>548500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>878400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>421300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1007300</v>
+      </c>
+      <c r="E9" s="3">
         <v>924200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>929800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1712900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>882700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>956400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>975200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1869700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>878900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>475800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>440400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>415100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>682400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>329400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>259700</v>
+      </c>
+      <c r="E10" s="3">
         <v>267200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>297500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>485800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>231100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>288000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>309800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>490600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>185900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>84100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>133200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>133400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>196000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,96 +985,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E14" s="3">
         <v>7700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>538300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>521900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>16100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>36700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>17500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>34900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-2600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>32000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>45400</v>
+        <v>46200</v>
       </c>
       <c r="E15" s="3">
         <v>45400</v>
       </c>
       <c r="F15" s="3">
+        <v>45400</v>
+      </c>
+      <c r="G15" s="3">
         <v>90100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>44900</v>
       </c>
       <c r="H15" s="3">
         <v>44900</v>
       </c>
       <c r="I15" s="3">
+        <v>44900</v>
+      </c>
+      <c r="J15" s="3">
         <v>44700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>88000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>41500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>20100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2400</v>
       </c>
       <c r="N15" s="3">
         <v>2400</v>
       </c>
       <c r="O15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P15" s="3">
         <v>4800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1211800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1120000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1123300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2640600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1614600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1178800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1189500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2306700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1092200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>626600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>534100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>494000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>868400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>408500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E18" s="3">
         <v>71400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>104000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-441900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>65600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>95500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>53600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-27400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-66700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>39500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>54500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,228 +1210,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1000</v>
       </c>
       <c r="P20" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>128300</v>
+      </c>
+      <c r="E21" s="3">
         <v>146800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>177000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-302800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-435500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>139600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>159800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>183000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>34300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-37400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>50700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>64800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>31700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E22" s="3">
         <v>54900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>51500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>107200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>54800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>56100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>56500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>116600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>58300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>19700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>53600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-550500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-560100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>39300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-61000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-83900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-96900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>34400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>50100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>17800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-35300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-18000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-18600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-23900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-20700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>30500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-515200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-542100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>25200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-42500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-60000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-76200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>36600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-514700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-541600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>24800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-42100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-59700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-76200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>36400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1605,20 +1666,23 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>1100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-600</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-1800</v>
       </c>
       <c r="P29" s="3">
         <v>-1800</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1000</v>
       </c>
       <c r="P32" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>30000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-514700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-541600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>24800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-42100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-59700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-76200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>27400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>35800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>30000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-514700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-541600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>24800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-42100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-59700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-76200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>27400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>35800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44107</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44016</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43925</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43401</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43310</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43219</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,272 +2052,291 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>666700</v>
+      </c>
+      <c r="E41" s="3">
         <v>674300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>627600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>483500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>475700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>98400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>105200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>87500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>99600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>143800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>54300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>35300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E42" s="3">
         <v>2300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3600</v>
-      </c>
-      <c r="J42" s="3">
-        <v>3700</v>
       </c>
       <c r="K42" s="3">
         <v>3700</v>
       </c>
       <c r="L42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M42" s="3">
         <v>3400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>632900</v>
+      </c>
+      <c r="E43" s="3">
         <v>594000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>613000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>559400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>512600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>540200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>622300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>609800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>513000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>439500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>234300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>212300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>186800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>170300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>494100</v>
+      </c>
+      <c r="E44" s="3">
         <v>431900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>408900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>403000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>460400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>439200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>467900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>502100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>517000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>536700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>254500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>260900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>221400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>200500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E45" s="3">
         <v>88600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>84400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>76800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>86600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>84200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>83800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>79100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>90200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>80300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>42300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>43300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>46800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1890500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1791200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1735800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1526200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1538100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1165700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1282800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1282200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1223500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1203800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>590700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>565600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>496700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,96 +2379,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>888600</v>
+      </c>
+      <c r="E48" s="3">
         <v>895900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>912900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>945100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>953100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>969000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>952100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>917400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>931100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>614000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>236200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>230900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>221400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>220500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2736500</v>
+      </c>
+      <c r="E49" s="3">
         <v>2779300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2813100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2853400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2887800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3410300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3462900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3442000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3423200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3310100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>275800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>278200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>280600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>283000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E52" s="3">
         <v>12100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>7900</v>
       </c>
       <c r="P52" s="3">
         <v>7900</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5528300</v>
+      </c>
+      <c r="E54" s="3">
         <v>5478500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5475000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5337800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5392400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5564300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5708500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5653700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5589900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5141200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1110400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1081700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1006600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>946000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,52 +2748,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>260900</v>
+      </c>
+      <c r="E57" s="3">
         <v>211400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>229400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>198900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>219300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>205600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>235200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>241800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>216300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>220900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>170700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>179700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>157800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2695,195 +2829,210 @@
         <v>25600</v>
       </c>
       <c r="M58" s="3">
+        <v>25600</v>
+      </c>
+      <c r="N58" s="3">
         <v>4600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>442500</v>
+      </c>
+      <c r="E59" s="3">
         <v>430100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>441300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>368900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>384600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>417300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>483700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>488700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>470100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>403700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>160400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>174100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>155800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>144700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>729000</v>
+      </c>
+      <c r="E60" s="3">
         <v>667200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>696300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>593500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>629500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>648500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>744500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>756100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>712000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>650200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>335700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>358900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>315300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3559300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3563400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3567300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3578300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3612600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3156900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3267600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3315600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3301200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3085200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>403100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>403800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>409000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>387600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>782300</v>
+      </c>
+      <c r="E62" s="3">
         <v>806100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>791100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>787800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>802400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>823600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>768400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>673900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>670300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>445900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>41300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>19900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5070700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5036700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5054700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4959600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5044500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4629000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4780600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4745500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4683600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4181200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>780100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>782600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>744300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>679700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-766300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-764700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-766600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-797100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-824000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-281200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-283200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-308300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-325900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-265800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-186300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-213800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-249800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-244100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>457600</v>
+      </c>
+      <c r="E76" s="3">
         <v>441800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>420300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>378200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>347900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>935300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>927900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>908200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>906300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>960000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>330300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>299100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>262300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44107</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44016</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43925</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43401</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43310</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43219</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>30000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-514700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-541600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>24800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-42100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-59700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-76200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>27400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>35800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E83" s="3">
         <v>72200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>71900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>140500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>69800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>72300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>64000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>127500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>59900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>30900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E89" s="3">
         <v>71500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>169900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>67000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>161800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>97700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-29900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-48700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>25600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>40000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-47600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-29100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-57200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-89300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-67400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-30100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-235500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-209600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>73500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-18600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>410300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>453300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-139400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-50100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>207000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>213400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-51700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E102" s="3">
         <v>46700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>144100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>387400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>381300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-56100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-44000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>93100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-30300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-53200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>CNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,230 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44107</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44016</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43925</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43401</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43310</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43219</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1267000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1191400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1227300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2198700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1113800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1244400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1285000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2360300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1064800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>559900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>573600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>548500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>878400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>421300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1088400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1007300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>924200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>929800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1712900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>882700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>956400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>975200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1869700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>878900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>475800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>440400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>415100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>682400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>329400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>311700</v>
+      </c>
+      <c r="E10" s="3">
         <v>259700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>267200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>297500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>485800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>231100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>288000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>309800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>490600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>185900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>84100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>133200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>133400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>196000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +906,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,102 +1004,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E14" s="3">
         <v>5200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>538300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>521900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>16100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>36700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>34900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-2600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>32000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E15" s="3">
         <v>46200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>45400</v>
       </c>
       <c r="F15" s="3">
         <v>45400</v>
       </c>
       <c r="G15" s="3">
+        <v>45400</v>
+      </c>
+      <c r="H15" s="3">
         <v>90100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>44900</v>
       </c>
       <c r="I15" s="3">
         <v>44900</v>
       </c>
       <c r="J15" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K15" s="3">
         <v>44700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>88000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>41500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2400</v>
       </c>
       <c r="O15" s="3">
         <v>2400</v>
       </c>
       <c r="P15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q15" s="3">
         <v>4800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1123,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1345500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1211800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1120000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1123300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2640600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1614600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1178800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1189500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2306700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1092200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>626600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>534100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>494000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>868400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>408500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E18" s="3">
         <v>55200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>71400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>104000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-441900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>65600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>95500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>53600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-27400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-66700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>39500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>54500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1243,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1000</v>
       </c>
       <c r="Q20" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E21" s="3">
         <v>128300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>146800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>177000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-302800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-435500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>139600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>159800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>183000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>34300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-37400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>50700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>64800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>31700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E22" s="3">
         <v>56500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>54900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>51500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>107200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>54800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>56100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>56500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>116600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>58300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>28600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>53600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-550500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-560100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>39300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-61000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-83900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-96900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>34400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>50100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>17800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-35300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-18000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-18600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-23900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-20700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1541,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>30500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-515200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-542100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>25200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-42500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-60000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-76200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>36600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1700</v>
+        <v>8800</v>
       </c>
       <c r="E27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-514700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-541600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-42100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-59700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-76200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>26300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>36400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1669,20 +1729,23 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>1100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-600</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-1800</v>
       </c>
       <c r="Q29" s="3">
         <v>-1800</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1841,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1700</v>
+        <v>8800</v>
       </c>
       <c r="E33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-514700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-541600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-42100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-59700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-76200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>27400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1991,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1700</v>
+        <v>8800</v>
       </c>
       <c r="E35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-514700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-541600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-42100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-59700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-76200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>27400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44107</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44016</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43925</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43401</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43310</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43219</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,290 +2138,309 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E41" s="3">
         <v>666700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>674300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>627600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>483500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>475700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>98400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>105200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>87500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>99600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>143800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>54300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>43300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>35300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E42" s="3">
         <v>2500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3600</v>
-      </c>
-      <c r="K42" s="3">
-        <v>3700</v>
       </c>
       <c r="L42" s="3">
         <v>3700</v>
       </c>
       <c r="M42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N42" s="3">
         <v>3400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>659600</v>
+      </c>
+      <c r="E43" s="3">
         <v>632900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>594000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>613000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>559400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>512600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>540200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>622300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>609800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>513000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>439500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>234300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>212300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>186800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>170300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>549700</v>
+      </c>
+      <c r="E44" s="3">
         <v>494100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>431900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>408900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>403000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>460400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>439200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>467900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>502100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>517000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>536700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>254500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>260900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>221400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>200500</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>485200</v>
+      </c>
+      <c r="E45" s="3">
         <v>94300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>88600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>84400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>76800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>86600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>84200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>83800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>79100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>90200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>80300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>42300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>43300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>46800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1786200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1890500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1791200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1735800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1526200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1538100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1165700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1282800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1282200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1223500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1203800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>590700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>565600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>496700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,102 +2486,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>841300</v>
+      </c>
+      <c r="E48" s="3">
         <v>888600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>895900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>912900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>945100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>953100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>969000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>952100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>917400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>931100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>614000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>236200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>230900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>221400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>220500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2596200</v>
+      </c>
+      <c r="E49" s="3">
         <v>2736500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2779300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2813100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2853400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2887800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3410300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3462900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3442000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3423200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3310100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>275800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>278200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>280600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>283000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2686,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E52" s="3">
         <v>12800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7100</v>
-      </c>
-      <c r="P52" s="3">
-        <v>7900</v>
       </c>
       <c r="Q52" s="3">
         <v>7900</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2786,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5254100</v>
+      </c>
+      <c r="E54" s="3">
         <v>5528300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5478500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5475000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5337800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5392400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5564300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5708500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5653700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5589900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5141200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1110400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1081700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1006600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>946000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,60 +2878,64 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>266100</v>
+      </c>
+      <c r="E57" s="3">
         <v>260900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>211400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>229400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>198900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>219300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>205600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>235200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>241800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>216300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>220900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>170700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>179700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>157800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>25600</v>
+        <v>26000</v>
       </c>
       <c r="E58" s="3">
         <v>25600</v>
@@ -2832,207 +2965,222 @@
         <v>25600</v>
       </c>
       <c r="N58" s="3">
+        <v>25600</v>
+      </c>
+      <c r="O58" s="3">
         <v>4600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>528300</v>
+      </c>
+      <c r="E59" s="3">
         <v>442500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>430100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>441300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>368900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>384600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>417300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>483700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>488700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>470100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>403700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>160400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>174100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>155800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>144700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>820400</v>
+      </c>
+      <c r="E60" s="3">
         <v>729000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>667200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>696300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>593500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>629500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>648500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>744500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>756100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>712000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>650200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>335700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>358900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>315300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3180800</v>
+      </c>
+      <c r="E61" s="3">
         <v>3559300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3563400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3567300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3578300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3612600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3156900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3267600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3315600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3301200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3085200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>403100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>403800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>409000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>387600</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>773700</v>
+      </c>
+      <c r="E62" s="3">
         <v>782300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>806100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>791100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>787800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>802400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>823600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>768400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>673900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>670300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>445900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>41300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>19900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3326,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4774800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5070700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5036700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5054700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4959600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5044500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4629000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4780600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4745500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4683600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4181200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>780100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>782600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>744300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>679700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3596,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-757400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-766300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-764700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-766600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-797100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-824000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-281200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-283200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-308300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-325900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-265800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-186300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-213800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-249800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-244100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3796,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>479200</v>
+      </c>
+      <c r="E76" s="3">
         <v>457600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>441800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>420300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>378200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>347900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>935300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>927900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>908200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>906300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>960000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>330300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>299100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>262300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3896,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44107</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44016</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43925</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43401</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43310</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43219</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1700</v>
+        <v>8800</v>
       </c>
       <c r="E81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-514700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-541600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-42100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-59700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-76200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>27400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4023,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E83" s="3">
         <v>72600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>72200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>71900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>140500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>69800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>72300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>64000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>127500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>59900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>30900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4321,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E89" s="3">
         <v>20000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>71500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>169900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>67000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>161800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>97700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-29900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-48700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>40000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4393,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-47600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-29100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-57200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4541,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-120600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-20700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-89300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-67400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-30100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-235500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-209600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>73500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4811,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-423900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>410300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>453300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-139400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-50100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>207000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>213400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>9200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-51700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-577700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>46700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>144100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>387400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>381300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-56100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-44000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>93100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-30300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-53200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>CNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,242 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44107</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44016</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43925</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43401</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43310</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43219</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1400100</v>
+        <v>1444400</v>
       </c>
       <c r="E8" s="3">
+        <v>2667200</v>
+      </c>
+      <c r="F8" s="3">
         <v>1267000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1191400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1227300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2198700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1113800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1244400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1285000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2360300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1064800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>559900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>573600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>548500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>878400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>421300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1088400</v>
+        <v>1134900</v>
       </c>
       <c r="E9" s="3">
+        <v>2095700</v>
+      </c>
+      <c r="F9" s="3">
         <v>1007300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>924200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>929800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1712900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>882700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>956400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>975200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1869700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>878900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>475800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>440400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>415100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>682400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>329400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>311700</v>
+        <v>309500</v>
       </c>
       <c r="E10" s="3">
+        <v>571500</v>
+      </c>
+      <c r="F10" s="3">
         <v>259700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>267200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>297500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>485800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>231100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>288000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>309800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>490600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>185900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>84100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>133200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>133400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>196000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,8 +919,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -957,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,108 +1023,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>46800</v>
+        <v>-808000</v>
       </c>
       <c r="E14" s="3">
-        <v>5200</v>
+        <v>52000</v>
       </c>
       <c r="F14" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G14" s="3">
         <v>7700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>538300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>521900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>16100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>36700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>34900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>32000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>46800</v>
+        <v>45700</v>
       </c>
       <c r="E15" s="3">
+        <v>93000</v>
+      </c>
+      <c r="F15" s="3">
         <v>46200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>45400</v>
       </c>
       <c r="G15" s="3">
         <v>45400</v>
       </c>
       <c r="H15" s="3">
+        <v>45400</v>
+      </c>
+      <c r="I15" s="3">
         <v>90100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>44900</v>
       </c>
       <c r="J15" s="3">
         <v>44900</v>
       </c>
       <c r="K15" s="3">
+        <v>44900</v>
+      </c>
+      <c r="L15" s="3">
         <v>44700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>88000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>41500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>20100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>2400</v>
       </c>
       <c r="P15" s="3">
         <v>2400</v>
       </c>
       <c r="Q15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R15" s="3">
         <v>4800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1149,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1345500</v>
+        <v>533700</v>
       </c>
       <c r="E17" s="3">
+        <v>2557400</v>
+      </c>
+      <c r="F17" s="3">
         <v>1211800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1120000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1123300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2640600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1614600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1178800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1189500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2306700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1092200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>626600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>534100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>494000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>868400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>408500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>54600</v>
+        <v>910700</v>
       </c>
       <c r="E18" s="3">
+        <v>109800</v>
+      </c>
+      <c r="F18" s="3">
         <v>55200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>71400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>104000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-441900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>65600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>95500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>53600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-27400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-66700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>39500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>54500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,258 +1276,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>800</v>
+        <v>-900</v>
       </c>
       <c r="E20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1000</v>
       </c>
       <c r="R20" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>128600</v>
+        <v>980900</v>
       </c>
       <c r="E21" s="3">
+        <v>256900</v>
+      </c>
+      <c r="F21" s="3">
         <v>128300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>146800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>177000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-302800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-435500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>139600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>159800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>183000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>34300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-37400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>50700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>64800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>31700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>47500</v>
+        <v>43700</v>
       </c>
       <c r="E22" s="3">
+        <v>104000</v>
+      </c>
+      <c r="F22" s="3">
         <v>56500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>54900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>51500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>107200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>54800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>56100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>56500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>116600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>58300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>28600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7900</v>
+        <v>866100</v>
       </c>
       <c r="E23" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>53600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-550500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-560100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>39300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-61000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-83900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-96900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>34400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>50100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1100</v>
+        <v>245600</v>
       </c>
       <c r="E24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>17800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-35300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-18000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-18600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-23900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-20700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1592,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8900</v>
+        <v>620500</v>
       </c>
       <c r="E26" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-515200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-542100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-42500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-60000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-76200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>36600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8800</v>
+        <v>612200</v>
       </c>
       <c r="E27" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-514700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-541600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-42100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-59700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-76200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>26300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>36400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1732,20 +1792,23 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>1100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>-1800</v>
       </c>
       <c r="R29" s="3">
         <v>-1800</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,108 +1910,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-800</v>
+        <v>900</v>
       </c>
       <c r="E32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-1000</v>
       </c>
       <c r="R32" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8800</v>
+        <v>612200</v>
       </c>
       <c r="E33" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-514700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-541600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-42100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-59700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-76200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>27400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>35800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2069,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8800</v>
+        <v>612200</v>
       </c>
       <c r="E35" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-514700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-541600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-42100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-59700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-76200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>27400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>35800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44107</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44016</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43925</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43401</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43310</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43219</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,308 +2224,327 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>677200</v>
+      </c>
+      <c r="E41" s="3">
         <v>89000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>666700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>674300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>627600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>483500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>475700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>98400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>105200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>87500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>99600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>143800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>54300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>43300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>35300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E42" s="3">
         <v>2700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3600</v>
-      </c>
-      <c r="L42" s="3">
-        <v>3700</v>
       </c>
       <c r="M42" s="3">
         <v>3700</v>
       </c>
       <c r="N42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O42" s="3">
         <v>3400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>6300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>656900</v>
+      </c>
+      <c r="E43" s="3">
         <v>659600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>632900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>594000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>613000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>559400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>512600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>540200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>622300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>609800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>513000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>439500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>234300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>212300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>186800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>170300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>614600</v>
+      </c>
+      <c r="E44" s="3">
         <v>549700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>494100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>431900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>408900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>403000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>460400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>439200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>467900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>502100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>517000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>536700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>254500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>260900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>221400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>200500</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E45" s="3">
         <v>485200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>94300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>88600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>84400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>76800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>86600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>84200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>83800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>79100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>90200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>80300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>42300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>43300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>46800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2076600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1786200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1890500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1791200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1735800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1526200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1538100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1165700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1282800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1282200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1223500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1203800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>590700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>565600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>496700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,108 +2593,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>861700</v>
+      </c>
+      <c r="E48" s="3">
         <v>841300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>888600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>895900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>912900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>945100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>953100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>969000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>952100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>917400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>931100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>614000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>236200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>230900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>221400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>220500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2764500</v>
+      </c>
+      <c r="E49" s="3">
         <v>2596200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2736500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2779300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2813100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2853400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2887800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3410300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3462900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3442000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3423200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3310100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>275800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>278200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>280600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>283000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,58 +2805,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E52" s="3">
         <v>30500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>19300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>7900</v>
       </c>
       <c r="R52" s="3">
         <v>7900</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2911,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5731100</v>
+      </c>
+      <c r="E54" s="3">
         <v>5254100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5528300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5478500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5475000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5337800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5392400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5564300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5708500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5653700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5589900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5141200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1110400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1081700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1006600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>946000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,58 +3008,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>307200</v>
+      </c>
+      <c r="E57" s="3">
         <v>266100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>260900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>211400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>229400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>198900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>219300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>205600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>235200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>241800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>216300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>220900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>170700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>179700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>157800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2938,7 +3071,7 @@
         <v>26000</v>
       </c>
       <c r="E58" s="3">
-        <v>25600</v>
+        <v>26000</v>
       </c>
       <c r="F58" s="3">
         <v>25600</v>
@@ -2968,219 +3101,234 @@
         <v>25600</v>
       </c>
       <c r="O58" s="3">
+        <v>25600</v>
+      </c>
+      <c r="P58" s="3">
         <v>4600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>484800</v>
+      </c>
+      <c r="E59" s="3">
         <v>528300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>442500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>430100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>441300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>368900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>384600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>417300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>483700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>488700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>470100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>403700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>160400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>174100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>155800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>144700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>817900</v>
+      </c>
+      <c r="E60" s="3">
         <v>820400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>729000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>667200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>696300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>593500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>629500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>648500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>744500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>756100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>712000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>650200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>335700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>358900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>315300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3015800</v>
+      </c>
+      <c r="E61" s="3">
         <v>3180800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3559300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3563400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3567300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3578300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3612600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3156900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3267600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3315600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3301200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3085200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>403100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>403800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>409000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>387600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>785300</v>
+      </c>
+      <c r="E62" s="3">
         <v>773700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>782300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>806100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>791100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>787800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>802400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>823600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>768400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>673900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>670300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>445900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>41300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>19900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>20100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3483,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4619000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4774800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5070700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5036700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5054700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4959600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5044500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4629000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4780600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4745500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4683600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4181200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>780100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>782600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>744300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>679700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3769,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-136900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-757400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-766300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-764700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-766600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-797100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-824000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-281200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-283200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-308300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-325900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-265800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-186300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-213800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-249800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-244100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +3981,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1112100</v>
+      </c>
+      <c r="E76" s="3">
         <v>479200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>457600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>441800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>420300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>378200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>347900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>935300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>927900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>908200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>906300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>960000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>330300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>299100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>262300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4087,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44107</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44016</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43925</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43401</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43310</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43219</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8800</v>
+        <v>612200</v>
       </c>
       <c r="E81" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-514700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-541600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-42100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-59700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-76200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>27400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>35800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4221,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>73300</v>
+        <v>71100</v>
       </c>
       <c r="E83" s="3">
+        <v>145900</v>
+      </c>
+      <c r="F83" s="3">
         <v>72600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>72200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>71900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>140500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>69800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>72300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>64000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>127500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>59900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4537,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-31800</v>
+        <v>-171900</v>
       </c>
       <c r="E89" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F89" s="3">
         <v>20000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>71500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>169900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>67000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>161800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>97700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-29900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-48700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>25600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>40000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4613,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26400</v>
+        <v>-27500</v>
       </c>
       <c r="E91" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-21200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-47600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-34700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-57200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4770,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-120600</v>
+        <v>927000</v>
       </c>
       <c r="E94" s="3">
+        <v>-141300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-20700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-89300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-67400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-30100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-235500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-209600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>73500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-18600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,154 +5056,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-423900</v>
+        <v>-171000</v>
       </c>
       <c r="E100" s="3">
+        <v>-431400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-7500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-13300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>410300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>453300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-139400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-50100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>207000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>213400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>9200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-51700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1500</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-577700</v>
+        <v>584200</v>
       </c>
       <c r="E102" s="3">
+        <v>-585300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-7500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>46700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>144100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>387400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>381300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-56100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-44000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>93100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-30300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-53200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>CNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,242 +665,255 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44107</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44016</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43925</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43401</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43310</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43219</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1471600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1444400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2667200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1267000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1191400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1227300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2198700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1113800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1244400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1285000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2360300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1064800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>559900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>573600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>548500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>878400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>421300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1153500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1134900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2095700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1007300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>924200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>929800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1712900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>882700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>956400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>975200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1869700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>878900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>475800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>440400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>415100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>682400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>329400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>318100</v>
+      </c>
+      <c r="E10" s="3">
         <v>309500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>571500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>259700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>267200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>297500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>485800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>231100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>288000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>309800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>490600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>185900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>84100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>133200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>133400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>196000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -920,8 +933,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,114 +1043,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-808000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>52000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>538300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>521900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>16100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>36700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>17500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>34900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-2600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>32000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E15" s="3">
         <v>45700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>93000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>46200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>45400</v>
       </c>
       <c r="H15" s="3">
         <v>45400</v>
       </c>
       <c r="I15" s="3">
+        <v>45400</v>
+      </c>
+      <c r="J15" s="3">
         <v>90100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>44900</v>
       </c>
       <c r="K15" s="3">
         <v>44900</v>
       </c>
       <c r="L15" s="3">
+        <v>44900</v>
+      </c>
+      <c r="M15" s="3">
         <v>44700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>88000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>41500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>20100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>2400</v>
       </c>
       <c r="Q15" s="3">
         <v>2400</v>
       </c>
       <c r="R15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S15" s="3">
         <v>4800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,114 +1176,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1397100</v>
+      </c>
+      <c r="E17" s="3">
         <v>533700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2557400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1211800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1120000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1123300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2640600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1614600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1178800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1189500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2306700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1092200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>626600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>534100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>494000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>868400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>408500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E18" s="3">
         <v>910700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>109800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>55200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>71400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>104000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-441900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>65600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>95500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>53600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-27400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-66700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>39500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>54500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,273 +1310,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1000</v>
       </c>
       <c r="S20" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>148300</v>
+      </c>
+      <c r="E21" s="3">
         <v>980900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>256900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>128300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>146800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>177000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-302800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-435500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>139600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>159800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>183000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>34300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-37400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>50700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>64800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>31700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E22" s="3">
         <v>43700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>104000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>56500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>54900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>51500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>107200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>54800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>56100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>56500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>116600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>58300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>28600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E23" s="3">
         <v>866100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>53600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-550500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-560100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>39300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-61000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-83900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-96900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>34400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>50100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E24" s="3">
         <v>245600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>17800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-35300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-18000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-18600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-23900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-20700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,114 +1644,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E26" s="3">
         <v>620500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>30500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-515200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-542100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-42500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-60000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-76200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>26500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>36600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E27" s="3">
         <v>612200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-514700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-541600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-42100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-59700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-76200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>26300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>36400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,31 +1812,34 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1795,20 +1856,23 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-600</v>
-      </c>
-      <c r="R29" s="3">
-        <v>-1800</v>
       </c>
       <c r="S29" s="3">
         <v>-1800</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,114 +1980,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-1000</v>
       </c>
       <c r="S32" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E33" s="3">
         <v>612200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>30000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-514700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-541600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-42100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-59700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-76200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>27400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>35800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,119 +2148,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E35" s="3">
         <v>612200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>30000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-514700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-541600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-42100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-59700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-76200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>27400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>35800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44107</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44016</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43925</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43401</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43310</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43219</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,326 +2311,345 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>394400</v>
+      </c>
+      <c r="E41" s="3">
         <v>677200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>89000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>666700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>674300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>627600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>483500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>475700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>98400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>105200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>87500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>99600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>143800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>54300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>35300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E42" s="3">
         <v>2600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3600</v>
-      </c>
-      <c r="M42" s="3">
-        <v>3700</v>
       </c>
       <c r="N42" s="3">
         <v>3700</v>
       </c>
       <c r="O42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P42" s="3">
         <v>3400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>6300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>699800</v>
+      </c>
+      <c r="E43" s="3">
         <v>656900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>659600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>632900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>594000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>613000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>559400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>512600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>540200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>622300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>609800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>513000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>439500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>234300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>212300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>186800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>170300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>748700</v>
+      </c>
+      <c r="E44" s="3">
         <v>614600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>549700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>494100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>431900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>408900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>403000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>460400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>439200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>467900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>502100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>517000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>536700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>254500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>260900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>221400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>200500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>141300</v>
+      </c>
+      <c r="E45" s="3">
         <v>125400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>485200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>94300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>88600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>84400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>76800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>86600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>84200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>83800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>79100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>90200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>80300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>42300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>43300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>46800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1987100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2076600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1786200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1890500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1791200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1735800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1526200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1538100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1165700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1282800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1282200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1223500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1203800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>590700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>565600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>496700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2596,114 +2701,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>934900</v>
+      </c>
+      <c r="E48" s="3">
         <v>861700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>841300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>888600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>895900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>912900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>945100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>953100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>969000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>952100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>917400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>931100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>614000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>236200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>230900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>221400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>220500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2882700</v>
+      </c>
+      <c r="E49" s="3">
         <v>2764500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2596200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2736500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2779300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2813100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2853400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2887800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3410300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3462900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3442000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3423200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3310100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>275800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>278200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>280600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>283000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,61 +2925,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E52" s="3">
         <v>28400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>7900</v>
       </c>
       <c r="S52" s="3">
         <v>7900</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,61 +3037,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5827500</v>
+      </c>
+      <c r="E54" s="3">
         <v>5731100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5254100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5528300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5478500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5475000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5337800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5392400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5564300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5708500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5653700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5589900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5141200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1110400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1081700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1006600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>946000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,61 +3139,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>311700</v>
+      </c>
+      <c r="E57" s="3">
         <v>307200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>266100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>260900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>211400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>229400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>198900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>219300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>205600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>235200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>241800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>216300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>220900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>170700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>179700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>157800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3074,7 +3208,7 @@
         <v>26000</v>
       </c>
       <c r="F58" s="3">
-        <v>25600</v>
+        <v>26000</v>
       </c>
       <c r="G58" s="3">
         <v>25600</v>
@@ -3104,231 +3238,246 @@
         <v>25600</v>
       </c>
       <c r="P58" s="3">
+        <v>25600</v>
+      </c>
+      <c r="Q58" s="3">
         <v>4600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>517700</v>
+      </c>
+      <c r="E59" s="3">
         <v>484800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>528300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>442500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>430100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>441300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>368900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>384600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>417300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>483700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>488700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>470100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>403700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>160400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>174100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>155800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>144700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>855400</v>
+      </c>
+      <c r="E60" s="3">
         <v>817900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>820400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>729000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>667200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>696300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>593500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>629500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>648500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>744500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>756100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>712000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>650200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>335700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>358900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>315300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3010800</v>
+      </c>
+      <c r="E61" s="3">
         <v>3015800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3180800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3559300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3563400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3567300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3578300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3612600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3156900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3267600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3315600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3301200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3085200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>403100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>403800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>409000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>387600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>784800</v>
+      </c>
+      <c r="E62" s="3">
         <v>785300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>773700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>782300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>806100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>791100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>787800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>802400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>823600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>768400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>673900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>670300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>445900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>41300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>19900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>20100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,61 +3641,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4651100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4619000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4774800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5070700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5036700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5054700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4959600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5044500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4629000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4780600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4745500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4683600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4181200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>780100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>782600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>744300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>679700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,61 +3943,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-98800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-136900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-757400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-766300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-764700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-766600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-797100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-824000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-281200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-283200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-308300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-325900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-265800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-186300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-213800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-249800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-244100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,61 +4167,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1176300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1112100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>479200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>457600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>441800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>420300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>378200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>347900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>935300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>927900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>908200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>906300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>960000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>330300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>299100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>262300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,119 +4279,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44107</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44016</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43925</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43401</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43310</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43219</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E81" s="3">
         <v>612200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>30000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-514700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-541600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-42100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-59700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-76200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>27400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>35800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,61 +4420,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E83" s="3">
         <v>71100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>145900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>72600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>72200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>71900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>140500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>69800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>72300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>64000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>127500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>59900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,61 +4754,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-171900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>71500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>169900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>67000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>161800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>97700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-29900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-48700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>25600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>40000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,61 +4834,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-47600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-47600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-57200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,61 +5000,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-236300</v>
+      </c>
+      <c r="E94" s="3">
         <v>927000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-141300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-20700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-89300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-67400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-30100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-235500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-209600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>73500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-18600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,163 +5302,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-171000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-431400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>410300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>453300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-139400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-50100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>207000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>213400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>9200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-51700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-282700</v>
+      </c>
+      <c r="E102" s="3">
         <v>584200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-585300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>46700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>144100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>387400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>381300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-56100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-44000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>93100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-30300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-53200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>CNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,255 +665,268 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44107</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44016</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43925</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43401</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43310</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43219</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1566800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1471600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1444400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2667200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1267000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1191400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1227300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2198700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1113800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1244400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1285000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2360300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1064800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>559900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>573600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>548500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>878400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>421300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1232900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1153500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1134900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2095700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1007300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>924200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>929800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1712900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>882700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>956400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>975200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1869700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>878900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>475800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>440400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>415100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>682400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>329400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>333900</v>
+      </c>
+      <c r="E10" s="3">
         <v>318100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>309500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>571500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>259700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>267200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>297500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>485800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>231100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>288000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>309800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>490600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>185900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>84100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>133200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>133400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>196000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>91900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -934,8 +947,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,120 +1063,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E14" s="3">
         <v>21200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-808000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>52000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>538300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>521900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>16100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>36700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>17500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>34900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-2600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>32000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E15" s="3">
         <v>50800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>45700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>93000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>46200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>45400</v>
       </c>
       <c r="I15" s="3">
         <v>45400</v>
       </c>
       <c r="J15" s="3">
+        <v>45400</v>
+      </c>
+      <c r="K15" s="3">
         <v>90100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>44900</v>
       </c>
       <c r="L15" s="3">
         <v>44900</v>
       </c>
       <c r="M15" s="3">
+        <v>44900</v>
+      </c>
+      <c r="N15" s="3">
         <v>44700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>88000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>41500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>20100</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>2400</v>
       </c>
       <c r="R15" s="3">
         <v>2400</v>
       </c>
       <c r="S15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T15" s="3">
         <v>4800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1387500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1397100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>533700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2557400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1211800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1120000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1123300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2640600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1614600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1178800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1189500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2306700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1092200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>626600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>534100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>494000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>868400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>408500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>179300</v>
+      </c>
+      <c r="E18" s="3">
         <v>74500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>910700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>109800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>55200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>71400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>104000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-441900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>65600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>95500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>53600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-27400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-66700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>39500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>54500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,288 +1344,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1000</v>
       </c>
       <c r="T20" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>254700</v>
+      </c>
+      <c r="E21" s="3">
         <v>148300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>980900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>256900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>128300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>146800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>177000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-302800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-435500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>139600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>159800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>183000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>34300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-37400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>50700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>64800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>31700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E22" s="3">
         <v>43600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>43700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>104000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>56500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>54900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>51500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>107200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>54800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>56100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>56500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>116600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>58300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>28600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>136600</v>
+      </c>
+      <c r="E23" s="3">
         <v>28700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>866100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>53600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-550500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-560100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>39300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-61000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-83900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-96900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>34400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>50100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-9400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>245600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>17800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-35300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-18000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-18600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-23900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E26" s="3">
         <v>38100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>620500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>30500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-515200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-542100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-42500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-60000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-76200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>26500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>36600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E27" s="3">
         <v>38100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>612200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>30000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-514700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-541600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-42100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-59700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-76200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>26300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>36400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1841,8 +1902,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1859,20 +1920,23 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>1100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-600</v>
-      </c>
-      <c r="S29" s="3">
-        <v>-1800</v>
       </c>
       <c r="T29" s="3">
         <v>-1800</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,120 +2050,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-1000</v>
       </c>
       <c r="T32" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E33" s="3">
         <v>38100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>612200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>30000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-514700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-541600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-42100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-59700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-76200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>27400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>35800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E35" s="3">
         <v>38100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>612200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>30000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-514700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-541600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-42100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-59700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-76200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>27400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>35800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44107</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44016</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43925</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43401</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43310</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43219</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,344 +2398,363 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>542000</v>
+      </c>
+      <c r="E41" s="3">
         <v>394400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>677200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>89000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>666700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>674300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>627600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>483500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>475700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>98400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>105200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>87500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>99600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>143800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>54300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>43300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>35300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E42" s="3">
         <v>2800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3600</v>
-      </c>
-      <c r="N42" s="3">
-        <v>3700</v>
       </c>
       <c r="O42" s="3">
         <v>3700</v>
       </c>
       <c r="P42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q42" s="3">
         <v>3400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>6300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>711800</v>
+      </c>
+      <c r="E43" s="3">
         <v>699800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>656900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>659600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>632900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>594000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>613000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>559400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>512600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>540200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>622300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>609800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>513000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>439500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>234300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>212300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>186800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>170300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>817700</v>
+      </c>
+      <c r="E44" s="3">
         <v>748700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>614600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>549700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>494100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>431900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>408900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>403000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>460400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>439200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>467900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>502100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>517000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>536700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>254500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>260900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>221400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>200500</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>105400</v>
+      </c>
+      <c r="E45" s="3">
         <v>141300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>125400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>485200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>94300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>88600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>84400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>76800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>86600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>84200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>83800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>79100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>90200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>80300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>42300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>43300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>46800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2179300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1987100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2076600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1786200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1890500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1791200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1735800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1526200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1538100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1165700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1282800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1282200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1223500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1203800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>590700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>565600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>496700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>434600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2704,120 +2809,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>920800</v>
+      </c>
+      <c r="E48" s="3">
         <v>934900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>861700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>841300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>888600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>895900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>912900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>945100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>953100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>969000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>952100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>917400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>931100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>614000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>236200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>230900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>221400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>220500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2832600</v>
+      </c>
+      <c r="E49" s="3">
         <v>2882700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2764500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2596200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2736500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2779300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2813100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2853400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2887800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3410300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3462900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3442000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3423200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3310100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>275800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>278200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>280600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>283000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,64 +3045,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E52" s="3">
         <v>22800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>28400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7100</v>
-      </c>
-      <c r="S52" s="3">
-        <v>7900</v>
       </c>
       <c r="T52" s="3">
         <v>7900</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6031700</v>
+      </c>
+      <c r="E54" s="3">
         <v>5827500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5731100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5254100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5528300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5478500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5475000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5337800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5392400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5564300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5708500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5653700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5589900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5141200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1110400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1081700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1006600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>946000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,64 +3270,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>396400</v>
+      </c>
+      <c r="E57" s="3">
         <v>311700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>307200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>266100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>260900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>211400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>229400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>198900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>219300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>205600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>235200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>241800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>216300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>220900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>170700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>179700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>157800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3211,7 +3345,7 @@
         <v>26000</v>
       </c>
       <c r="G58" s="3">
-        <v>25600</v>
+        <v>26000</v>
       </c>
       <c r="H58" s="3">
         <v>25600</v>
@@ -3241,243 +3375,258 @@
         <v>25600</v>
       </c>
       <c r="Q58" s="3">
+        <v>25600</v>
+      </c>
+      <c r="R58" s="3">
         <v>4600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>472900</v>
+      </c>
+      <c r="E59" s="3">
         <v>517700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>484800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>528300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>442500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>430100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>441300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>368900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>384600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>417300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>483700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>488700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>470100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>403700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>160400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>174100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>155800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>144700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>895300</v>
+      </c>
+      <c r="E60" s="3">
         <v>855400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>817900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>820400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>729000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>667200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>696300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>593500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>629500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>648500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>744500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>756100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>712000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>650200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>335700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>358900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>315300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3005900</v>
+      </c>
+      <c r="E61" s="3">
         <v>3010800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3015800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3180800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3559300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3563400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3567300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3578300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3612600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3156900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3267600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3315600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3301200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3085200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>403100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>403800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>409000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>387600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>771300</v>
+      </c>
+      <c r="E62" s="3">
         <v>784800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>785300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>773700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>782300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>806100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>791100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>787800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>802400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>823600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>768400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>673900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>670300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>445900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>41300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>19900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>20100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4672500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4651100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4619000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4774800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5070700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5036700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5054700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4959600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5044500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4629000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4780600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4745500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4683600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4181200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>780100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>782600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>744300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>679700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-98800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-136900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-757400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-766300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-764700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-766600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-797100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-824000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-281200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-283200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-308300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-325900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-265800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-186300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-213800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-249800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-244100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1359100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1176300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1112100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>479200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>457600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>441800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>420300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>378200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>347900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>935300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>927900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>908200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>906300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>960000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>330300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>299100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>262300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44107</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44016</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43925</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43401</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43310</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43219</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43128</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E81" s="3">
         <v>38100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>612200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>30000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-514700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-541600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-42100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-59700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-76200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>27400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>35800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,64 +4619,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E83" s="3">
         <v>75900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>71100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>145900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>72600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>72200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>71900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>140500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>69800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>72300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>64000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>127500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>59900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>30900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>190100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-32200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-171900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>71500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>169900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>67000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>161800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>97700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-29900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-48700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>25600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>40000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-39500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-47600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-47600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-57200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-236300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>927000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-141300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-89300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-67400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-30100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-235500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-209600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>73500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-18600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,172 +5548,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-14900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-171000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-431400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-13300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>410300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>453300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-139400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-50100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>207000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>213400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>9200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-51700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>147600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-282700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>584200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-585300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>46700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>144100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>387400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>381300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-56100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-44000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>93100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-30300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-53200</v>
       </c>
     </row>
